--- a/data/trans_dic/P48_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P48_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios</t>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>30,61%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,11%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,65%</t>
+          <t>26,57%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,02%</t>
+          <t>45,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,26%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,2%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>17,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>26,96%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>27,62%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>23,23%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>42,03%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,75; 44,04</t>
+          <t>20,77; 57,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,78; 40,3</t>
+          <t>22,25; 60,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,14; 44,48</t>
+          <t>14,87; 46,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,3; 41,7</t>
+          <t>12,92; 44,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>20,84; 45,4</t>
+          <t>26,54; 63,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,43; 38,2</t>
+          <t>10,89; 37,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,28; 38,44</t>
+          <t>7,68; 28,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,79; 37,38</t>
+          <t>8,49; 31,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,29; 40,19</t>
+          <t>9,45; 32,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,78; 35,47</t>
+          <t>25,21; 55,65</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,4; 37,93</t>
+          <t>19,07; 40,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>20,15; 36,13</t>
+          <t>17,87; 39,2</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 33,6</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>13,63; 33,32</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>31,1; 55,15</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,47%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>28,73%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,0%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,15%</t>
+          <t>30,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32,63%</t>
+          <t>36,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>32,77%</t>
+          <t>32,93%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>25,12%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>31,75%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>30,36%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>35,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,19; 44,22</t>
+          <t>15,58; 47,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,61; 36,52</t>
+          <t>8,59; 37,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,36; 44,25</t>
+          <t>11,98; 44,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,41; 43,65</t>
+          <t>10,99; 44,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,52; 45,49</t>
+          <t>12,3; 48,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,2; 41,48</t>
+          <t>22,77; 50,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,35; 44,34</t>
+          <t>16,75; 44,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,65; 42,6</t>
+          <t>24,1; 50,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,48; 40,95</t>
+          <t>23,19; 49,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>18,92; 34,78</t>
+          <t>33,03; 59,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,63; 40,57</t>
+          <t>22,38; 43,92</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,52; 38,96</t>
+          <t>15,33; 35,5</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>20,38; 42,4</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 41,69</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>21,89; 47,92</t>
         </is>
       </c>
     </row>
@@ -936,22 +1021,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,63%</t>
+          <t>59,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>47,67%</t>
+          <t>62,8%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,02%</t>
+          <t>51,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>39,65%</t>
+          <t>50,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +1046,52 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,34%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>44,13%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,12%</t>
+          <t>46,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>53,49%</t>
+          <t>46,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>46,99%</t>
+          <t>50,21%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>43,14%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>54,29%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>48,69%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>47,79%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>51,94%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,96; 62,39</t>
+          <t>47,01; 71,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,42; 61,36</t>
+          <t>46,59; 75,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,99; 52,97</t>
+          <t>38,86; 64,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,92; 50,98</t>
+          <t>37,63; 63,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>45,98; 63,0</t>
+          <t>41,01; 67,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,8; 55,51</t>
+          <t>45,81; 65,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,19; 52,68</t>
+          <t>36,75; 59,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>35,17; 51,58</t>
+          <t>37,07; 56,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>46,66; 59,83</t>
+          <t>36,76; 56,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>38,33; 55,61</t>
+          <t>38,93; 60,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,57; 49,95</t>
+          <t>48,48; 65,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,24; 48,31</t>
+          <t>44,57; 62,48</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>40,42; 56,31</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>39,58; 55,54</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>43,28; 60,53</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,05%</t>
+          <t>46,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,12%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,9%</t>
+          <t>50,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41,44%</t>
+          <t>49,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>43,75%</t>
+          <t>38,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,03%</t>
+          <t>47,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>33,4%</t>
+          <t>48,72%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>46,57%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>48,16%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>43,9%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>43,45%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>39,3%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,47; 51,11</t>
+          <t>34,96; 57,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,22; 50,25</t>
+          <t>35,1; 61,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,48; 51,22</t>
+          <t>39,37; 61,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,96; 50,38</t>
+          <t>38,73; 60,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,3; 51,33</t>
+          <t>28,45; 49,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,8; 51,01</t>
+          <t>37,25; 56,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,1; 40,69</t>
+          <t>38,79; 58,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,01; 38,85</t>
+          <t>29,15; 47,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>37,63; 48,99</t>
+          <t>28,71; 47,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,23; 48,62</t>
+          <t>30,56; 50,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,68; 43,45</t>
+          <t>39,38; 54,27</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,11; 42,0</t>
+          <t>39,96; 57,01</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>37,45; 52,0</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>35,92; 50,64</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>31,45; 46,3</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>25,25%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>24,07%</t>
+          <t>25,96%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,14%</t>
+          <t>32,44%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>37,81%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,1%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>30,19%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>28,39%</t>
+          <t>21,99%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>30,5%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30,76%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>28,79%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>26,41%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,4; 33,69</t>
+          <t>15,79; 36,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,98; 33,23</t>
+          <t>15,74; 37,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,05; 39,73</t>
+          <t>20,22; 50,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,06; 36,68</t>
+          <t>18,87; 46,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,19; 45,18</t>
+          <t>19,28; 45,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,5; 43,18</t>
+          <t>25,72; 51,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,65; 42,94</t>
+          <t>23,36; 55,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,27; 43,81</t>
+          <t>17,27; 42,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>24,22; 36,17</t>
+          <t>16,85; 41,21</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,42; 34,98</t>
+          <t>13,57; 35,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,19; 37,37</t>
+          <t>23,45; 40,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>22,72; 36,48</t>
+          <t>21,29; 39,57</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>22,06; 42,11</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20,17; 38,74</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>18,41; 35,44</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1531,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>33,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>21,93%</t>
+          <t>30,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>25,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>23,44%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>18,73%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>20,65%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>21,47%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,32; 34,6</t>
+          <t>20,41; 49,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,63; 34,1</t>
+          <t>15,08; 48,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,12; 33,92</t>
+          <t>17,73; 47,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,34; 32,43</t>
+          <t>17,94; 46,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 22,87</t>
+          <t>15,46; 41,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 23,52</t>
+          <t>6,27; 27,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 20,17</t>
+          <t>2,56; 23,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,29; 16,8</t>
+          <t>6,14; 25,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>13,09; 25,28</t>
+          <t>5,54; 23,3</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,81; 24,01</t>
+          <t>8,26; 33,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,47; 22,44</t>
+          <t>15,75; 33,31</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,35; 20,82</t>
+          <t>10,23; 27,95</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>13,91; 31,64</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 30,55</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 31,29</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>39,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>37,72%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,16%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>39,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>30,06%</t>
+          <t>33,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>32,21%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>39,37%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>36,35%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>35,64%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>34,27%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>36,73%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>31,7; 39,91</t>
+          <t>33,54; 45,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>27,39; 36,94</t>
+          <t>30,66; 44,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,56; 38,38</t>
+          <t>31,94; 44,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,54; 36,91</t>
+          <t>29,51; 42,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>33,56; 41,12</t>
+          <t>30,32; 43,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,04; 37,79</t>
+          <t>34,97; 43,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,96; 35,2</t>
+          <t>30,41; 40,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,9; 34,1</t>
+          <t>28,66; 37,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>33,78; 39,62</t>
+          <t>27,62; 36,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,63; 35,69</t>
+          <t>31,27; 41,83</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,8; 35,73</t>
+          <t>35,63; 43,11</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>28,38; 34,01</t>
+          <t>32,22; 40,71</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>31,82; 39,28</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>30,26; 37,67</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>32,43; 40,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1628,15 +1870,1980 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32440</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>40038</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>28089</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30401</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>55005</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>22606</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>20477</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19941</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21584</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>53243</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>55046</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>60515</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>48030</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>51985</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>108249</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>17244; 47357</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22201; 60373</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14208; 44829</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14785; 51206</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>32145; 77350</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12012; 40842</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9162; 34357</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9434; 34575</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10695; 36812</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>34398; 75938</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36875; 77756</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>39140; 85888</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>29006; 69465</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>31011; 75830</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>80102; 142042</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39277</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>30366</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>37988</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37847</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>65406</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>47973</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>43300</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>45301</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44805</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73186</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>87250</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>73666</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>83289</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>82652</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>138592</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>20870; 63139</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12894; 55961</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>16516; 61610</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16047; 65132</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28008; 111222</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29826; 65593</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23984; 63501</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>29985; 63324</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>29298; 62231</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>53635; 97409</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>59306; 116356</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>44968; 104100</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>53452; 111225</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>54006; 113511</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>85368; 186926</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>82139</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>81392</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69371</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69197</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>95542</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>120597</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>101344</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>97983</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>92399</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>116764</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>202735</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>182736</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>167354</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>161596</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>212306</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>64615; 98347</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>60386; 98077</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>52208; 86740</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>51797; 87254</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72268; 119597</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>98670; 140707</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>76068; 123724</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>77603; 119057</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>73692; 113097</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>90540; 140882</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>171064; 230459</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>150000; 210300</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>138926; 193569</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>133829; 187798</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>176905; 247422</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>75289</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>65402</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>80465</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>76686</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>74732</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>89941</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>92555</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>71027</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>64414</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>83541</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>165230</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>157957</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>151493</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>141100</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>158272</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>57152; 93282</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>48443; 84372</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>62663; 97409</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>59662; 92751</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55879; 96962</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>71245; 107273</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>73684; 112012</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>54191; 88234</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>49017; 80843</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>63075; 104971</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>139691; 192523</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>131065; 186990</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>129235; 179455</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>116663; 164440</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>126671; 186496</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35982</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>35461</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41027</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35642</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>46791</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>38342</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>32798</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26727</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>25027</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>29644</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>74323</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>68259</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>67754</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>60669</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>76435</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>21926; 50601</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>21511; 51212</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>25576; 64154</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>22272; 55049</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>29815; 69809</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>26086; 52149</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>20367; 48083</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16204; 39871</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>15613; 38189</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18300; 48112</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>56346; 97642</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>47644; 88577</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>48599; 92768</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>42499; 81616</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>53286; 102573</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30426</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>24798</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>27099</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>27477</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>35735</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>15212</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>11277</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>14706</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13977</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>36972</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>45639</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>36075</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>41805</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>41454</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>72707</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>18413; 44662</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12290; 39559</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>15489; 41191</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>16166; 42132</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>21315; 57194</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6548; 28474</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2849; 25780</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>6458; 26668</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>6132; 25766</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>16597; 66842</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>30664; 64857</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>19693; 53829</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>26771; 60890</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>26726; 61325</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>48002; 105969</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>295552</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>277456</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>284038</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>277251</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>373212</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>334671</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>301751</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>275686</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>262206</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>393349</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>630223</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>579207</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>559724</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>539457</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>766561</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>250518; 341753</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>225567; 325377</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>236576; 332844</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>224333; 321241</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>307368; 441594</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>298646; 375657</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>260808; 350260</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>237835; 314430</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>224851; 298713</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>335611; 448952</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>570469; 690123</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>513380; 648651</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>499793; 616936</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>476375; 593035</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>676994; 852273</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>